--- a/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/PO/016- Purchase order- for thermostat.xlsx
+++ b/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/PO/016- Purchase order- for thermostat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43119BCB-8BCC-457D-B249-68B23C5F6167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DCDD74-6955-4E27-B714-4BB5F6F4D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A10:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1146,8 +1146,13 @@
       <c r="D27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="12">
+        <v>25000</v>
+      </c>
+      <c r="F27" s="27">
+        <f>E27*C27</f>
+        <v>150000</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
@@ -1161,7 +1166,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="21">
         <f>SUM(F27:F27)</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -1176,7 +1181,7 @@
       <c r="E29" s="32"/>
       <c r="F29" s="22">
         <f>F28*5%</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -1191,7 +1196,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="23">
         <f>F28-F29</f>
-        <v>0</v>
+        <v>142500</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
